--- a/5cData_parameters master sheet.xlsx
+++ b/5cData_parameters master sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adams\PycharmProjects\5 Crowns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CDD222-F57E-4E14-9369-6B2C834CA2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43982761-04B7-4672-9882-715C7846B615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5cData_organized_by_num_of_sets" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>ROWS:</t>
   </si>
@@ -101,6 +101,24 @@
   </si>
   <si>
     <t>1 if corresponding cell in 5c…_num_of_sets is LESS THAN THE 10TH PERCENTILE, and 0 if not</t>
+  </si>
+  <si>
+    <t>2,11</t>
+  </si>
+  <si>
+    <t>1,10</t>
+  </si>
+  <si>
+    <t>3,10</t>
+  </si>
+  <si>
+    <t>3,11</t>
+  </si>
+  <si>
+    <t>4,11</t>
+  </si>
+  <si>
+    <t>3,12</t>
   </si>
 </sst>
 </file>
@@ -243,7 +261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,6 +447,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -599,7 +623,7 @@
       <alignment vertical="top" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -957,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B500804F-BCFF-4B28-8D93-157A29A2D15D}">
   <dimension ref="A1:AV102"/>
   <sheetViews>
-    <sheetView zoomScale="54" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="AG19" sqref="AG19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1069,6 +1093,9 @@
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
       <c r="B4">
         <v>1</v>
       </c>
@@ -1110,6 +1137,9 @@
       </c>
       <c r="O4">
         <v>12.504799999999999</v>
+      </c>
+      <c r="R4" t="s">
+        <v>24</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -1248,6 +1278,9 @@
       <c r="AF5">
         <v>27.009599999999999</v>
       </c>
+      <c r="AH5" t="s">
+        <v>27</v>
+      </c>
       <c r="AJ5">
         <v>0</v>
       </c>
@@ -2344,7 +2377,7 @@
       <c r="D14">
         <v>5.8724999999999996</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <v>5.8102</v>
       </c>
       <c r="F14">
@@ -2846,6 +2879,9 @@
       </c>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
       <c r="C19">
         <v>22.032800000000002</v>
       </c>
@@ -2968,6 +3004,9 @@
       <c r="O20">
         <v>25.66</v>
       </c>
+      <c r="R20" t="s">
+        <v>25</v>
+      </c>
       <c r="T20">
         <v>23.4468</v>
       </c>
@@ -3128,6 +3167,9 @@
       </c>
       <c r="AF21">
         <v>26.866</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>25</v>
       </c>
       <c r="AJ21">
         <v>13.5648</v>
@@ -4405,7 +4447,10 @@
         <v>8.7927</v>
       </c>
     </row>
-    <row r="33" spans="3:32" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
       <c r="C33">
         <v>49.770400000000002</v>
       </c>
@@ -4488,7 +4533,7 @@
         <v>54.2928</v>
       </c>
     </row>
-    <row r="34" spans="3:32" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.45">
       <c r="C34">
         <v>37.986600000000003</v>
       </c>
@@ -4528,6 +4573,9 @@
       <c r="O34">
         <v>49.434399999999997</v>
       </c>
+      <c r="R34" t="s">
+        <v>26</v>
+      </c>
       <c r="T34">
         <v>54.517600000000002</v>
       </c>
@@ -4568,7 +4616,7 @@
         <v>54.462400000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:32" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.45">
       <c r="C35">
         <v>31.438500000000001</v>
       </c>
@@ -4648,7 +4696,7 @@
         <v>33.49</v>
       </c>
     </row>
-    <row r="36" spans="3:32" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.45">
       <c r="C36">
         <v>27.617000000000001</v>
       </c>
@@ -4728,7 +4776,7 @@
         <v>23.858499999999999</v>
       </c>
     </row>
-    <row r="37" spans="3:32" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.45">
       <c r="C37">
         <v>23.994399999999999</v>
       </c>
@@ -4808,7 +4856,7 @@
         <v>20.0199</v>
       </c>
     </row>
-    <row r="38" spans="3:32" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.45">
       <c r="C38">
         <v>20.692699999999999</v>
       </c>
@@ -4888,7 +4936,7 @@
         <v>16.383700000000001</v>
       </c>
     </row>
-    <row r="39" spans="3:32" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.45">
       <c r="C39">
         <v>19.813199999999998</v>
       </c>
@@ -4968,7 +5016,7 @@
         <v>15.7965</v>
       </c>
     </row>
-    <row r="40" spans="3:32" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.45">
       <c r="C40">
         <v>16.569600000000001</v>
       </c>
@@ -5048,7 +5096,7 @@
         <v>15.157500000000001</v>
       </c>
     </row>
-    <row r="41" spans="3:32" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.45">
       <c r="C41">
         <v>16.260899999999999</v>
       </c>
@@ -5128,7 +5176,7 @@
         <v>12.024800000000001</v>
       </c>
     </row>
-    <row r="42" spans="3:32" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.45">
       <c r="C42">
         <v>16.162199999999999</v>
       </c>
@@ -5208,7 +5256,7 @@
         <v>14.8255</v>
       </c>
     </row>
-    <row r="43" spans="3:32" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.45">
       <c r="C43">
         <v>16.244700000000002</v>
       </c>
@@ -5288,7 +5336,7 @@
         <v>11.6972</v>
       </c>
     </row>
-    <row r="44" spans="3:32" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.45">
       <c r="C44">
         <v>16.472100000000001</v>
       </c>
@@ -5368,7 +5416,7 @@
         <v>14.888999999999999</v>
       </c>
     </row>
-    <row r="45" spans="3:32" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.45">
       <c r="T45">
         <v>10.0778</v>
       </c>
@@ -5409,7 +5457,7 @@
         <v>11.9224</v>
       </c>
     </row>
-    <row r="48" spans="3:32" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.45">
       <c r="C48" s="3" t="s">
         <v>0</v>
       </c>
@@ -5460,8 +5508,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AJ20:AV32">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="C3:O15">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5474,18 +5522,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:O30">
     <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:O15">
-    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5520,8 +5556,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T33:AF45">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="T19:AF31">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5532,8 +5568,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T19:AF31">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="T33:AF45">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5556,15 +5592,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AJ20:AV32">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59AAE4F8-E051-4629-92C4-524F10B94753}">
-  <dimension ref="A1:AV53"/>
+  <dimension ref="A1:AV48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="69" workbookViewId="0">
+    <sheetView zoomScale="50" workbookViewId="0">
       <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
@@ -10047,33 +10095,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="AJ23:AV35">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="C6:O18">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10081,6 +10105,18 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:O47">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -10096,68 +10132,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:O18">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C35:O47">
     <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T8:AF20">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T36:AF48">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T22:AF34">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ9:AV21">
-    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10204,15 +10180,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:O47">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="T8:AF20">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -10228,6 +10204,42 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="T22:AF34">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T36:AF48">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ9:AV21">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AJ9:AV35">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -10237,6 +10249,18 @@
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ23:AV35">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
